--- a/processed_data/data_gazepath/data_brookes-babylab.xlsx
+++ b/processed_data/data_gazepath/data_brookes-babylab.xlsx
@@ -489,16 +489,8 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G3">
-        <v>6267.666666666667</v>
-      </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -639,14 +631,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G7">
-        <v>8517.666666666668</v>
+        <v>9851</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1149,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>982.333333333333</v>
@@ -1238,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1673.000000000001</v>
+        <v>799</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1367,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2874.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1049</v>
@@ -1410,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4990.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1818,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1890.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1975,8 +1967,16 @@
       <c r="E39">
         <v>2</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G39">
+        <v>5434.333333333334</v>
+      </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2068,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1507.333333333333</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2207.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2111,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>2331.333333333334</v>
+        <v>807.3333333333339</v>
       </c>
       <c r="K42">
-        <v>1957.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2544,16 +2544,8 @@
       <c r="E54">
         <v>5</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G54">
-        <v>9851</v>
-      </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2622,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2653,16 +2645,8 @@
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G57">
-        <v>5726</v>
-      </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2696,22 +2680,14 @@
       <c r="E58">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G58">
-        <v>5409.333333333334</v>
-      </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>3824</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2904,13 +2880,13 @@
         <v>5259.333333333334</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>2339.666666666667</v>
+        <v>449</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -2956,7 +2932,7 @@
         <v>1289.666666666666</v>
       </c>
       <c r="K64">
-        <v>1140.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3026,17 +3002,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G66">
-        <v>7834.333333333334</v>
+        <v>6884.333333333334</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>782.3333333333339</v>
@@ -3069,14 +3045,14 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>incongruent</t>
+          <t>congruent</t>
         </is>
       </c>
       <c r="G67">
-        <v>6892.666666666667</v>
+        <v>4942.666666666667</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3202,13 +3178,13 @@
         </is>
       </c>
       <c r="G70">
-        <v>5226</v>
+        <v>7609.333333333334</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>964.666666666667</v>
@@ -3319,17 +3295,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G73">
-        <v>7326.000000000001</v>
+        <v>9709.333333333334</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>449</v>
@@ -3375,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>5348</v>
+        <v>1215.666666666667</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3415,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>1090.666666666667</v>
@@ -3504,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="J77">
-        <v>1632.333333333332</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>2389.666666666667</v>
@@ -3550,7 +3526,7 @@
         <v>1115.666666666667</v>
       </c>
       <c r="K78">
-        <v>2523</v>
+        <v>507.333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -3714,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>4307.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3940,10 +3916,10 @@
         </is>
       </c>
       <c r="G88">
-        <v>5651</v>
+        <v>9034.333333333334</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4035,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>2632.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4078,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="J91">
-        <v>1382.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1640.666666666667</v>
@@ -4108,14 +4084,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G92">
-        <v>7509.333333333334</v>
+        <v>9084.333333333334</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -4331,7 +4307,7 @@
         <v>999</v>
       </c>
       <c r="K97">
-        <v>1790.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4363,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>381.3333333333321</v>
+        <v>640.6666666666661</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4391,19 +4367,11 @@
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G99">
-        <v>8251</v>
-      </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -4561,16 +4529,8 @@
       <c r="E105">
         <v>2</v>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G105">
-        <v>8051.000000000001</v>
-      </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4711,7 +4671,7 @@
         </is>
       </c>
       <c r="G109">
-        <v>5451</v>
+        <v>8984.333333333334</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -4748,19 +4708,11 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G110">
-        <v>6359.333333333334</v>
-      </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -5318,13 +5270,13 @@
         <v>1</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>165.6666666666661</v>
       </c>
       <c r="K128">
-        <v>2113.666666666666</v>
+        <v>481.333333333333</v>
       </c>
     </row>
     <row r="129">
@@ -5349,16 +5301,8 @@
       <c r="E129">
         <v>2</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G129">
-        <v>7109.333333333334</v>
-      </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5445,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>4582.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5470,16 +5414,8 @@
       <c r="E132">
         <v>5</v>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G132">
-        <v>5451</v>
-      </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -5488,7 +5424,7 @@
         <v>307.3333333333339</v>
       </c>
       <c r="K132">
-        <v>5639.666666666666</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="133">
@@ -5523,7 +5459,7 @@
         <v>2064.666666666668</v>
       </c>
       <c r="K133">
-        <v>2764.666666666667</v>
+        <v>257.3333333333339</v>
       </c>
     </row>
     <row r="134">
@@ -5744,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>2781.333333333332</v>
+        <v>1140.666666666666</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -5830,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="J143">
-        <v>1656.333333333333</v>
+        <v>549</v>
       </c>
       <c r="K143">
         <v>682.3333333333339</v>
@@ -5873,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>2097</v>
+        <v>1031.333333333333</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6149,19 +6085,11 @@
       <c r="E153">
         <v>2</v>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G153">
-        <v>8417.666666666668</v>
-      </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6320,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>3114.666666666666</v>
+        <v>565.6666666666661</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -6350,14 +6278,14 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G158">
-        <v>7026</v>
+        <v>9101</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6449,10 +6377,10 @@
         <v>1</v>
       </c>
       <c r="J160">
-        <v>1615.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K160">
-        <v>1857.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6489,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="K161">
         <v>532.3333333333339</v>
@@ -6893,19 +6821,11 @@
       <c r="E171">
         <v>2</v>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G171">
-        <v>9759.333333333334</v>
-      </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -6971,19 +6891,11 @@
       <c r="E173">
         <v>4</v>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G173">
-        <v>6159.333333333334</v>
-      </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7043,25 +6955,17 @@
       <c r="E175">
         <v>6</v>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G175">
-        <v>7026.000000000001</v>
-      </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175">
         <v>182.333333333333</v>
       </c>
       <c r="K175">
-        <v>890.6666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7345,7 +7249,7 @@
         <v>6442.666666666667</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -7500,8 +7404,16 @@
       <c r="E188">
         <v>1</v>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G188">
+        <v>9859.333333333334</v>
+      </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -7535,11 +7447,19 @@
       <c r="E189">
         <v>2</v>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G189">
+        <v>9517.666666666668</v>
+      </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -7691,19 +7611,11 @@
       <c r="E193">
         <v>6</v>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G193">
-        <v>9801</v>
-      </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>940.666666666667</v>
@@ -7783,10 +7695,10 @@
         </is>
       </c>
       <c r="G195">
-        <v>8651</v>
+        <v>9734.333333333334</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -7826,10 +7738,10 @@
         </is>
       </c>
       <c r="G196">
-        <v>5401</v>
+        <v>8067.666666666667</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -7863,16 +7775,8 @@
       <c r="E197">
         <v>4</v>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G197">
-        <v>8859.333333333334</v>
-      </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -7921,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>4299</v>
+        <v>0</v>
       </c>
       <c r="K198">
         <v>599</v>
@@ -8035,19 +7939,11 @@
       <c r="E201">
         <v>2</v>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G201">
-        <v>8301</v>
-      </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8156,16 +8052,8 @@
       <c r="E204">
         <v>5</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G204">
-        <v>6926.000000000001</v>
-      </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8291,10 +8179,10 @@
         </is>
       </c>
       <c r="G207">
-        <v>6634.333333333334</v>
+        <v>5509.333333333334</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -8484,25 +8372,17 @@
       <c r="E212">
         <v>1</v>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G212">
-        <v>6101</v>
-      </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212">
-        <v>1340.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8804,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>3789.666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -9187,7 +9067,7 @@
         <v>5384.333333333334</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -9389,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -9438,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="K240">
-        <v>1357.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -9551,17 +9431,17 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G243">
-        <v>7234.333333333334</v>
+        <v>6292.666666666667</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243">
         <v>881.3333333333339</v>
@@ -9685,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>1257.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -10135,16 +10015,8 @@
       <c r="E257">
         <v>4</v>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G257">
-        <v>8767.666666666668</v>
-      </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -10271,16 +10143,8 @@
       <c r="E261">
         <v>2</v>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G261">
-        <v>5201</v>
-      </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261">
         <v>0</v>
@@ -10352,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>3582.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -10490,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="J267">
-        <v>2506.333333333335</v>
+        <v>965.666666666667</v>
       </c>
       <c r="K267">
         <v>1181.333333333333</v>
@@ -10561,19 +10425,11 @@
       <c r="E269">
         <v>4</v>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G269">
-        <v>8634.333333333334</v>
-      </c>
       <c r="H269">
         <v>0</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269">
         <v>140.6666666666679</v>
@@ -10619,10 +10475,10 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>3155.333333333334</v>
+        <v>1848.000000000001</v>
       </c>
       <c r="K270">
-        <v>2182.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -10649,17 +10505,17 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G271">
-        <v>9759.333333333334</v>
+        <v>5167.666666666667</v>
       </c>
       <c r="H271">
         <v>1</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J271">
         <v>215.6666666666679</v>
@@ -10806,22 +10662,14 @@
       <c r="E276">
         <v>5</v>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G276">
-        <v>8942.666666666668</v>
-      </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276">
         <v>0</v>
       </c>
       <c r="J276">
-        <v>1881.333333333332</v>
+        <v>132.3333333333321</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -10849,12 +10697,6 @@
       <c r="E277">
         <v>6</v>
       </c>
-      <c r="H277">
-        <v>0</v>
-      </c>
-      <c r="I277">
-        <v>0</v>
-      </c>
       <c r="J277">
         <v>0</v>
       </c>
@@ -10902,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="K278">
-        <v>1614.666666666665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -11381,18 +11223,6 @@
       <c r="E291">
         <v>2</v>
       </c>
-      <c r="H291">
-        <v>0</v>
-      </c>
-      <c r="I291">
-        <v>0</v>
-      </c>
-      <c r="J291">
-        <v>0</v>
-      </c>
-      <c r="K291">
-        <v>0</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11521,12 +11351,6 @@
       <c r="E295">
         <v>6</v>
       </c>
-      <c r="H295">
-        <v>0</v>
-      </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
       <c r="J295">
         <v>0</v>
       </c>
@@ -11579,19 +11403,11 @@
       <c r="E297">
         <v>2</v>
       </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G297">
-        <v>5426</v>
-      </c>
       <c r="H297">
         <v>0</v>
       </c>
       <c r="I297">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -11871,19 +11687,11 @@
       <c r="E305">
         <v>4</v>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G305">
-        <v>6176</v>
-      </c>
       <c r="H305">
         <v>0</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305">
         <v>2840.666666666668</v>
@@ -11966,7 +11774,7 @@
         <v>5334.333333333334</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -12321,11 +12129,19 @@
       <c r="E319">
         <v>6</v>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>incongruent</t>
+        </is>
+      </c>
+      <c r="G319">
+        <v>8217.666666666668</v>
+      </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319">
         <v>0</v>
@@ -12531,19 +12347,11 @@
       <c r="E325">
         <v>6</v>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G325">
-        <v>9684.333333333334</v>
-      </c>
       <c r="H325">
         <v>0</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J325">
         <v>0</v>
@@ -12839,12 +12647,6 @@
       <c r="E333">
         <v>2</v>
       </c>
-      <c r="J333">
-        <v>0</v>
-      </c>
-      <c r="K333">
-        <v>0</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -13096,19 +12898,11 @@
       <c r="E342">
         <v>5</v>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G342">
-        <v>7984.333333333334</v>
-      </c>
       <c r="H342">
         <v>0</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -13482,7 +13276,7 @@
         <v>5384.333333333334</v>
       </c>
       <c r="H353">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -14118,19 +13912,11 @@
       <c r="E368">
         <v>1</v>
       </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G368">
-        <v>5134.333333333334</v>
-      </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368">
         <v>224</v>
@@ -14460,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="J377">
-        <v>2340.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K377">
         <v>0</v>
@@ -14960,13 +14746,13 @@
         <v>1</v>
       </c>
       <c r="I394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394">
         <v>540.666666666667</v>
       </c>
       <c r="K394">
-        <v>2607.333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -15049,7 +14835,7 @@
         <v>1</v>
       </c>
       <c r="J396">
-        <v>2461.666666666667</v>
+        <v>1638.666666666667</v>
       </c>
       <c r="K396">
         <v>249</v>
@@ -15077,14 +14863,22 @@
       <c r="E397">
         <v>6</v>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G397">
+        <v>6009.333333333334</v>
+      </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
         <v>0</v>
       </c>
       <c r="J397">
-        <v>2207.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K397">
         <v>0</v>
@@ -15154,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="J399">
-        <v>2731.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K399">
         <v>0</v>
@@ -15303,16 +15097,8 @@
       <c r="E403">
         <v>6</v>
       </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G403">
-        <v>9409.333333333334</v>
-      </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403">
         <v>0</v>
@@ -15527,16 +15313,8 @@
       <c r="E411">
         <v>2</v>
       </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G411">
-        <v>5542.666666666667</v>
-      </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411">
         <v>0</v>
@@ -15777,19 +15555,11 @@
       <c r="E417">
         <v>2</v>
       </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G417">
-        <v>5676</v>
-      </c>
       <c r="H417">
         <v>0</v>
       </c>
       <c r="I417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J417">
         <v>0</v>
@@ -16028,7 +15798,7 @@
         <v>5217.666666666667</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423">
         <v>0</v>
@@ -16117,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425">
         <v>1049</v>
@@ -16418,16 +16188,8 @@
       <c r="E436">
         <v>3</v>
       </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G436">
-        <v>8542.666666666668</v>
-      </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436">
         <v>0</v>
@@ -16780,16 +16542,8 @@
       <c r="E446">
         <v>1</v>
       </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G446">
-        <v>8201</v>
-      </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446">
         <v>0</v>
@@ -17707,19 +17461,11 @@
       <c r="E477">
         <v>2</v>
       </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G477">
-        <v>7292.666666666667</v>
-      </c>
       <c r="H477">
         <v>0</v>
       </c>
       <c r="I477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J477">
         <v>524</v>
@@ -17757,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="J478">
-        <v>1032.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K478">
         <v>0</v>
@@ -17826,7 +17572,7 @@
         <v>1</v>
       </c>
       <c r="I480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480">
         <v>824</v>
@@ -17864,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="J481">
-        <v>1440.666666666666</v>
+        <v>0</v>
       </c>
       <c r="K481">
         <v>0</v>
@@ -18168,16 +17914,8 @@
       <c r="E494">
         <v>1</v>
       </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G494">
-        <v>5834.333333333334</v>
-      </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494">
         <v>0</v>
@@ -18773,10 +18511,10 @@
         </is>
       </c>
       <c r="G513">
-        <v>5634.333333333334</v>
+        <v>7551.000000000001</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513">
         <v>0</v>
@@ -18853,19 +18591,11 @@
       <c r="E515">
         <v>4</v>
       </c>
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G515">
-        <v>8701</v>
-      </c>
       <c r="H515">
         <v>0</v>
       </c>
       <c r="I515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J515">
         <v>0</v>
@@ -18941,14 +18671,14 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G517">
-        <v>6284.333333333334</v>
+        <v>9709.333333333334</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517">
         <v>1</v>
@@ -19787,7 +19517,7 @@
         <v>1</v>
       </c>
       <c r="J538">
-        <v>2757.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K538">
         <v>674</v>
@@ -19815,22 +19545,14 @@
       <c r="E539">
         <v>4</v>
       </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G539">
-        <v>5742.666666666667</v>
-      </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539">
         <v>0</v>
       </c>
       <c r="J539">
-        <v>4039.666666666667</v>
+        <v>549</v>
       </c>
       <c r="K539">
         <v>182.333333333333</v>
@@ -19873,7 +19595,7 @@
         <v>1</v>
       </c>
       <c r="J540">
-        <v>1690.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K540">
         <v>939.666666666667</v>
@@ -19916,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="J541">
-        <v>3305.333333333333</v>
+        <v>1756.333333333333</v>
       </c>
       <c r="K541">
         <v>1024</v>
@@ -19956,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="I542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J542">
         <v>615.666666666667</v>
@@ -20002,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="J543">
-        <v>4012.666666666669</v>
+        <v>2038.666666666668</v>
       </c>
       <c r="K543">
         <v>0</v>
@@ -20073,16 +19795,8 @@
       <c r="E545">
         <v>4</v>
       </c>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G545">
-        <v>9751</v>
-      </c>
       <c r="H545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545">
         <v>0</v>
@@ -20116,16 +19830,8 @@
       <c r="E546">
         <v>5</v>
       </c>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G546">
-        <v>8376</v>
-      </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546">
         <v>0</v>
@@ -20171,13 +19877,13 @@
         <v>0</v>
       </c>
       <c r="I547">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J547">
         <v>674</v>
       </c>
       <c r="K547">
-        <v>3222.999999999999</v>
+        <v>957.333333333333</v>
       </c>
     </row>
     <row r="548">
@@ -20349,7 +20055,7 @@
         <v>7192.666666666667</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I554">
         <v>1</v>
@@ -20570,7 +20276,7 @@
         <v>0</v>
       </c>
       <c r="J559">
-        <v>3532.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K559">
         <v>265.6666666666661</v>
@@ -20703,19 +20409,11 @@
       <c r="E563">
         <v>4</v>
       </c>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G563">
-        <v>6242.666666666667</v>
-      </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J563">
         <v>107.333333333333</v>
@@ -20746,16 +20444,8 @@
       <c r="E564">
         <v>5</v>
       </c>
-      <c r="F564" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G564">
-        <v>5667.666666666667</v>
-      </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564">
         <v>0</v>
@@ -20855,16 +20545,8 @@
       <c r="E567">
         <v>2</v>
       </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G567">
-        <v>5517.666666666667</v>
-      </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567">
         <v>0</v>
@@ -20898,16 +20580,8 @@
       <c r="E568">
         <v>3</v>
       </c>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G568">
-        <v>9467.666666666668</v>
-      </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568">
         <v>0</v>
@@ -20941,19 +20615,11 @@
       <c r="E569">
         <v>4</v>
       </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G569">
-        <v>6976</v>
-      </c>
       <c r="H569">
         <v>0</v>
       </c>
       <c r="I569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569">
         <v>1723.000000000001</v>
@@ -21063,7 +20729,7 @@
         <v>0</v>
       </c>
       <c r="J572">
-        <v>1823.000000000001</v>
+        <v>449</v>
       </c>
       <c r="K572">
         <v>0</v>
@@ -21149,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="J574">
-        <v>2499.000000000001</v>
+        <v>0</v>
       </c>
       <c r="K574">
         <v>332.333333333333</v>
@@ -21435,16 +21101,8 @@
       <c r="E581">
         <v>4</v>
       </c>
-      <c r="F581" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G581">
-        <v>8776.000000000002</v>
-      </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581">
         <v>0</v>
@@ -22168,7 +21826,7 @@
         <v>682.3333333333339</v>
       </c>
       <c r="K598">
-        <v>2522.999999999999</v>
+        <v>265.6666666666661</v>
       </c>
     </row>
     <row r="599">
@@ -22193,16 +21851,8 @@
       <c r="E599">
         <v>4</v>
       </c>
-      <c r="F599" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G599">
-        <v>6676</v>
-      </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599">
         <v>0</v>
@@ -22242,16 +21892,16 @@
         </is>
       </c>
       <c r="G600">
-        <v>8151.000000000001</v>
+        <v>5309.333333333334</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I600">
         <v>0</v>
       </c>
       <c r="J600">
-        <v>1605.333333333332</v>
+        <v>607.333333333333</v>
       </c>
       <c r="K600">
         <v>0</v>
@@ -22478,19 +22128,11 @@
       <c r="E606">
         <v>5</v>
       </c>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G606">
-        <v>8834.333333333334</v>
-      </c>
       <c r="H606">
         <v>0</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606">
         <v>0</v>
@@ -22533,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="I607">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J607">
         <v>0</v>
@@ -23074,16 +22716,8 @@
       <c r="E622">
         <v>3</v>
       </c>
-      <c r="F622" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G622">
-        <v>8726</v>
-      </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622">
         <v>0</v>
@@ -23135,7 +22769,7 @@
         <v>1589.666666666666</v>
       </c>
       <c r="K623">
-        <v>2215.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -23385,7 +23019,7 @@
         <v>673</v>
       </c>
       <c r="K629">
-        <v>1074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -23416,10 +23050,10 @@
         </is>
       </c>
       <c r="G630">
-        <v>6426.000000000001</v>
+        <v>8751</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630">
         <v>0</v>
@@ -23632,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="J635">
-        <v>1980.333333333333</v>
+        <v>1099</v>
       </c>
       <c r="K635">
         <v>0</v>
@@ -23675,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="J636">
-        <v>1924</v>
+        <v>0</v>
       </c>
       <c r="K636">
         <v>507.3333333333335</v>
@@ -23833,7 +23467,7 @@
         <v>6242.666666666667</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I640">
         <v>0</v>
@@ -24035,7 +23669,7 @@
         <v>1</v>
       </c>
       <c r="I645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J645">
         <v>1364.666666666667</v>
@@ -24081,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="J646">
-        <v>2539.666666666666</v>
+        <v>907.3333333333321</v>
       </c>
       <c r="K646">
         <v>2506.333333333333</v>
@@ -24162,7 +23796,7 @@
         <v>707.333333333333</v>
       </c>
       <c r="K648">
-        <v>2340.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -24202,7 +23836,7 @@
         <v>1</v>
       </c>
       <c r="J649">
-        <v>2606.333333333334</v>
+        <v>1349</v>
       </c>
       <c r="K649">
         <v>1439.666666666667</v>
@@ -24340,16 +23974,8 @@
       <c r="E654">
         <v>5</v>
       </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G654">
-        <v>9776</v>
-      </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654">
         <v>0</v>
@@ -24421,7 +24047,7 @@
         <v>0</v>
       </c>
       <c r="J656">
-        <v>2297</v>
+        <v>765.666666666667</v>
       </c>
       <c r="K656">
         <v>190.6666666666661</v>
@@ -24507,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="J658">
-        <v>681.3333333333349</v>
+        <v>0</v>
       </c>
       <c r="K658">
         <v>0</v>
@@ -24734,22 +24360,14 @@
       <c r="E664">
         <v>3</v>
       </c>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G664">
-        <v>7401.000000000001</v>
-      </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664">
         <v>0</v>
       </c>
       <c r="J664">
-        <v>1823.999999999999</v>
+        <v>0</v>
       </c>
       <c r="K664">
         <v>0</v>
@@ -24832,7 +24450,7 @@
         <v>1</v>
       </c>
       <c r="I666">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J666">
         <v>1115.666666666667</v>
@@ -25001,7 +24619,7 @@
         <v>5192.666666666667</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I670">
         <v>0</v>
@@ -25053,7 +24671,7 @@
         <v>315.6666666666661</v>
       </c>
       <c r="K671">
-        <v>3714.666666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -25093,7 +24711,7 @@
         <v>1</v>
       </c>
       <c r="J672">
-        <v>3873</v>
+        <v>374</v>
       </c>
       <c r="K672">
         <v>674</v>
@@ -25139,7 +24757,7 @@
         <v>1164.666666666667</v>
       </c>
       <c r="K673">
-        <v>3705.333333333334</v>
+        <v>648.0000000000005</v>
       </c>
     </row>
     <row r="674">
@@ -25187,14 +24805,8 @@
       <c r="E675">
         <v>2</v>
       </c>
-      <c r="H675">
-        <v>0</v>
-      </c>
-      <c r="I675">
-        <v>0</v>
-      </c>
       <c r="J675">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K675">
         <v>0</v>
@@ -25369,8 +24981,16 @@
       <c r="E681">
         <v>2</v>
       </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G681">
+        <v>6101.000000000001</v>
+      </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681">
         <v>0</v>
@@ -25449,14 +25069,14 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>congruent</t>
+          <t>incongruent</t>
         </is>
       </c>
       <c r="G683">
-        <v>6626</v>
+        <v>7151</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>1</v>
@@ -25619,19 +25239,11 @@
       <c r="E687">
         <v>2</v>
       </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G687">
-        <v>8067.666666666667</v>
-      </c>
       <c r="H687">
         <v>0</v>
       </c>
       <c r="I687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J687">
         <v>257.3333333333321</v>
@@ -25705,12 +25317,6 @@
       <c r="E689">
         <v>4</v>
       </c>
-      <c r="H689">
-        <v>0</v>
-      </c>
-      <c r="I689">
-        <v>0</v>
-      </c>
       <c r="J689">
         <v>0</v>
       </c>
@@ -25810,8 +25416,16 @@
       <c r="E692">
         <v>1</v>
       </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>congruent</t>
+        </is>
+      </c>
+      <c r="G692">
+        <v>5634.333333333334</v>
+      </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I692">
         <v>0</v>
@@ -26026,10 +25640,10 @@
         </is>
       </c>
       <c r="G698">
-        <v>6367.666666666667</v>
+        <v>4426</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I698">
         <v>0</v>
@@ -26113,7 +25727,7 @@
         <v>1</v>
       </c>
       <c r="J700">
-        <v>2982.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K700">
         <v>465.6666666666661</v>
@@ -26211,7 +25825,7 @@
         </is>
       </c>
       <c r="G703">
-        <v>9059.333333333334</v>
+        <v>4501</v>
       </c>
       <c r="H703">
         <v>0</v>
@@ -26387,7 +26001,7 @@
         <v>1165.666666666667</v>
       </c>
       <c r="K707">
-        <v>1299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -26427,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="J708">
-        <v>2473.000000000001</v>
+        <v>224</v>
       </c>
       <c r="K708">
         <v>0</v>
@@ -26628,16 +26242,8 @@
       <c r="E714">
         <v>5</v>
       </c>
-      <c r="F714" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G714">
-        <v>8917.666666666668</v>
-      </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714">
         <v>0</v>
@@ -26930,7 +26536,7 @@
         <v>1</v>
       </c>
       <c r="I722">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J722">
         <v>1382.333333333333</v>
@@ -27062,7 +26668,7 @@
         <v>1</v>
       </c>
       <c r="J725">
-        <v>2389.666666666667</v>
+        <v>1182.333333333333</v>
       </c>
       <c r="K725">
         <v>872.0000000000009</v>
@@ -27105,7 +26711,7 @@
         <v>0</v>
       </c>
       <c r="J726">
-        <v>3731.333333333334</v>
+        <v>0</v>
       </c>
       <c r="K726">
         <v>0</v>
@@ -27148,7 +26754,7 @@
         <v>1</v>
       </c>
       <c r="J727">
-        <v>2722.999999999999</v>
+        <v>1807.333333333333</v>
       </c>
       <c r="K727">
         <v>963.6666666666679</v>
@@ -27191,7 +26797,7 @@
         <v>0</v>
       </c>
       <c r="J728">
-        <v>3430.333333333333</v>
+        <v>1331.333333333333</v>
       </c>
       <c r="K728">
         <v>0</v>
@@ -27234,7 +26840,7 @@
         <v>0</v>
       </c>
       <c r="J729">
-        <v>2631.333333333333</v>
+        <v>732.333333333333</v>
       </c>
       <c r="K729">
         <v>0</v>
@@ -27320,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="J731">
-        <v>3422.999999999999</v>
+        <v>1265.666666666666</v>
       </c>
       <c r="K731">
         <v>790.6666666666665</v>
@@ -27831,7 +27437,7 @@
         <v>0</v>
       </c>
       <c r="J744">
-        <v>2923</v>
+        <v>699</v>
       </c>
       <c r="K744">
         <v>0</v>
@@ -28286,16 +27892,8 @@
       <c r="E758">
         <v>1</v>
       </c>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G758">
-        <v>9251</v>
-      </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758">
         <v>0</v>
@@ -28344,7 +27942,7 @@
         <v>0</v>
       </c>
       <c r="J759">
-        <v>2140.666666666667</v>
+        <v>0</v>
       </c>
       <c r="K759">
         <v>649</v>
@@ -28407,16 +28005,8 @@
       <c r="E761">
         <v>4</v>
       </c>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>congruent</t>
-        </is>
-      </c>
-      <c r="G761">
-        <v>5851</v>
-      </c>
       <c r="H761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761">
         <v>0</v>
@@ -28468,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="K762">
-        <v>890.666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -28620,19 +28210,11 @@
       <c r="E768">
         <v>5</v>
       </c>
-      <c r="F768" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G768">
-        <v>8951</v>
-      </c>
       <c r="H768">
         <v>0</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J768">
         <v>0</v>
@@ -28749,19 +28331,11 @@
       <c r="E771">
         <v>2</v>
       </c>
-      <c r="F771" t="inlineStr">
-        <is>
-          <t>incongruent</t>
-        </is>
-      </c>
-      <c r="G771">
-        <v>7026.000000000001</v>
-      </c>
       <c r="H771">
         <v>0</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J771">
         <v>174</v>
@@ -28860,7 +28434,7 @@
         <v>0</v>
       </c>
       <c r="K774">
-        <v>1182.333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -29138,10 +28712,10 @@
         <v>1</v>
       </c>
       <c r="J781">
-        <v>3437.666666666667</v>
+        <v>2080.333333333334</v>
       </c>
       <c r="K781">
-        <v>1274</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
